--- a/file/result.xlsx
+++ b/file/result.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicius/code/ComputeNetwork/file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -977,9 +964,18 @@
     <t>http://faculty.haas.berkeley.edu/borenste/</t>
   </si>
   <si>
+    <t>Supply chain management (production and inventory management and distribution systems management);Service systems management;Production-quality interface issues;Marketing-production interface issues</t>
+  </si>
+  <si>
     <t>Judgment and decision making;Consumer experience, preferences, and behavior;The self (e.g., self-insight, self-regulation, self-affirmation);Moral psychology;Social cognition</t>
   </si>
   <si>
+    <t>Integration of market and non-market strategies;International debt rescheduling;Lobbying and trade protectionism</t>
+  </si>
+  <si>
+    <t>Business Model Innovation;Business Analytics;Service Innovation;Operations Strategy;Operation-Marketing Interface;;;&lt;strong&gt;Selected Papers and Publications&lt;/strong&gt;;&lt;ul&gt;Guajardo, J.A. 2018. Third-Party Ownership Business Models and the Operational Performance of Solar Energy Systems. Manufacturing &amp;amp; Service Operations Management, 20(4) 788–800.&lt;/div&gt;;Guajardo, J.A., M.A. Cohen. 2018. Service Differentiation and Operating Segments: A Framework and an Application to After-Sales Services. Manufacturing &amp;amp; Service Operations Management, 20(3) 440–454.&lt;/div&gt;;Guajardo, J.A., M.A. Cohen, S. Netessine. 2016. Service Competition and Product Quality in the U.S. Automobile Industry. Management Science, 62(7) 1860–1877.;Guajardo, J.A., M.A. Cohen, S.-H. Kim, S. Netessine. 2012. Impact of Performance-Based Contracting on Product Reliability: An Empirical Study.Management Science, 58(5) 961-979.;Guajardo, J.A., R. Weber, J, Miranda. 2010. A Model Updating Strategy for Predicting Time Series with Seasonal Patterns. 2010, Applied Soft Computing, 10(1) 276-283.;Guajardo, J.A., J. Miranda, R. Weber. 2006. A Forecasting Methodology using Support Vector Regression and Dynamic Feature Selection. 2006, Journal of Information and Knowledge Management, 5(4) 329-335.</t>
+  </si>
+  <si>
     <t>High-technology marketing;Information-intensive marketing;Consumer and managerial decision making;E-business, E-commerce;Marketing strategy;Knowledge management</t>
   </si>
   <si>
@@ -1986,29 +1982,17 @@
   </si>
   <si>
     <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>Integration of market and non-market strategies;International debt rescheduling;Lobbying and trade protectionism</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business Model Innovation;Business Analytics;Service Innovation;Operations Strategy;Operation-Marketing Interface;;;&lt;strong&gt;Selected Papers and Publications&lt;/strong&gt;;&lt;ul&gt;Guajardo, J.A. 2018. Third-Party Ownership Business Models and the Operational Performance of Solar Energy Systems. Manufacturing &amp;amp; Service Operations Management, 20(4) 788–800.&lt;/div&gt;;Guajardo, J.A., M.A. Cohen. 2018. Service Differentiation and Operating Segments: A Framework and an Application to After-Sales Services. Manufacturing &amp;amp; Service Operations Management, 20(3) 440–454.&lt;/div&gt;;Guajardo, J.A., M.A. Cohen, S. Netessine. 2016. Service Competition and Product Quality in the U.S. Automobile Industry. Management Science, 62(7) 1860–1877.;Guajardo, J.A., M.A. Cohen, S.-H. Kim, S. Netessine. 2012. Impact of Performance-Based Contracting on Product Reliability: An Empirical Study.Management Science, 58(5) 961-979.;Guajardo, J.A., R. Weber, J, Miranda. 2010. A Model Updating Strategy for Predicting Time Series with Seasonal Patterns. 2010, Applied Soft Computing, 10(1) 276-283.;Guajardo, J.A., J. Miranda, R. Weber. 2006. A Forecasting Methodology using Support Vector Regression and Dynamic Feature Selection. 2006, Journal of Information and Knowledge Management, 5(4) 329-335.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supply chain management (production and inventory management and distribution systems management);Service systems management;Production-quality interface issues;Marketing-production interface issues</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2016,7 +2000,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2026,12 +2010,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2081,21 +2059,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2137,12 +2110,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2169,15 +2142,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2204,7 +2176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2380,19 +2351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="65.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2432,19 +2398,19 @@
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>655</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2458,19 +2424,19 @@
         <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2484,22 +2450,22 @@
         <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>653</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2513,19 +2479,19 @@
         <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>654</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2539,13 +2505,13 @@
         <v>245</v>
       </c>
       <c r="F6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2556,22 +2522,22 @@
         <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2585,22 +2551,22 @@
         <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2611,22 +2577,22 @@
         <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G9" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H9" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="I9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2640,22 +2606,22 @@
         <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="I10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2666,22 +2632,22 @@
         <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H11" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="I11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2695,22 +2661,22 @@
         <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H12" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="I12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2724,22 +2690,22 @@
         <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H13" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="I13" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2753,22 +2719,22 @@
         <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I14" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2782,13 +2748,13 @@
         <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2802,16 +2768,16 @@
         <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H16" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="I16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2822,19 +2788,19 @@
         <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I17" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2845,19 +2811,19 @@
         <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H18" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I18" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2871,19 +2837,19 @@
         <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H19" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="I19" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2897,22 +2863,22 @@
         <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G20" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H20" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I20" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2923,22 +2889,22 @@
         <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H21" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2952,19 +2918,19 @@
         <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H22" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I22" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2978,19 +2944,19 @@
         <v>256</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I23" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3001,13 +2967,13 @@
         <v>257</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I24" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3021,13 +2987,13 @@
         <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3041,22 +3007,22 @@
         <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G26" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H26" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3067,16 +3033,16 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I27" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3090,22 +3056,22 @@
         <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F28" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G28" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H28" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I28" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3119,19 +3085,19 @@
         <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F29" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G29" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3142,19 +3108,19 @@
         <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I30" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3165,22 +3131,22 @@
         <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F31" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G31" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H31" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I31" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3194,16 +3160,16 @@
         <v>262</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3217,22 +3183,22 @@
         <v>263</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G33" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="I33" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3243,16 +3209,16 @@
         <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F34" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I34" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3266,22 +3232,22 @@
         <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F35" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G35" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H35" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I35" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3295,22 +3261,22 @@
         <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G36" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H36" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="I36" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3324,16 +3290,16 @@
         <v>266</v>
       </c>
       <c r="F37" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H37" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I37" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3347,13 +3313,13 @@
         <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I38" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3367,19 +3333,19 @@
         <v>268</v>
       </c>
       <c r="F39" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G39" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H39" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="I39" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3393,19 +3359,19 @@
         <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H40" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I40" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3419,19 +3385,19 @@
         <v>270</v>
       </c>
       <c r="F41" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G41" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H41" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I41" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3442,19 +3408,19 @@
         <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H42" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I42" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3465,16 +3431,16 @@
         <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H43" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="I43" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3488,13 +3454,13 @@
         <v>271</v>
       </c>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I44" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3508,19 +3474,19 @@
         <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H45" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="I45" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3534,16 +3500,16 @@
         <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H46" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="I46" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3554,22 +3520,22 @@
         <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H47" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="I47" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3583,16 +3549,16 @@
         <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I48" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3603,19 +3569,19 @@
         <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H49" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I49" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3629,13 +3595,13 @@
         <v>276</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I50" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3649,16 +3615,16 @@
         <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I51" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3669,16 +3635,16 @@
         <v>171</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H52" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I52" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3692,19 +3658,19 @@
         <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H53" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I53" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3715,22 +3681,22 @@
         <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G54" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H54" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="I54" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3744,16 +3710,16 @@
         <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I55" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3767,19 +3733,19 @@
         <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I56" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3793,13 +3759,13 @@
         <v>281</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I57" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3810,19 +3776,19 @@
         <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H58" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I58" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3836,22 +3802,22 @@
         <v>282</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G59" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H59" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I59" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3862,19 +3828,19 @@
         <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G60" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I60" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3885,16 +3851,16 @@
         <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H61" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="I61" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3908,22 +3874,22 @@
         <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G62" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H62" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="I62" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3937,19 +3903,19 @@
         <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H63" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="I63" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3963,19 +3929,19 @@
         <v>285</v>
       </c>
       <c r="E64" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G64" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I64" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3986,16 +3952,16 @@
         <v>184</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I65" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4009,22 +3975,22 @@
         <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G66" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H66" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="I66" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4038,22 +4004,22 @@
         <v>287</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G67" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H67" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I67" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4067,16 +4033,16 @@
         <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I68" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4090,16 +4056,16 @@
         <v>289</v>
       </c>
       <c r="F69" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H69" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I69" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4110,22 +4076,22 @@
         <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F70" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G70" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H70" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I70" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4139,22 +4105,22 @@
         <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F71" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G71" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H71" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I71" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4168,13 +4134,13 @@
         <v>291</v>
       </c>
       <c r="F72" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I72" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4188,16 +4154,16 @@
         <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I73" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4208,13 +4174,13 @@
         <v>193</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I74" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4225,19 +4191,19 @@
         <v>194</v>
       </c>
       <c r="F75" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G75" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H75" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="I75" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4248,13 +4214,13 @@
         <v>195</v>
       </c>
       <c r="F76" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I76" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4265,19 +4231,19 @@
         <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F77" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G77" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I77" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4288,13 +4254,13 @@
         <v>197</v>
       </c>
       <c r="F78" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I78" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4305,19 +4271,19 @@
         <v>198</v>
       </c>
       <c r="E79" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F79" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H79" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="I79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4331,19 +4297,19 @@
         <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F80" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G80" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I80" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4357,16 +4323,16 @@
         <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G81" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I81" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4380,19 +4346,19 @@
         <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F82" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H82" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="I82" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4406,16 +4372,16 @@
         <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F83" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I83" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4429,19 +4395,19 @@
         <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F84" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H84" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="I84" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4452,19 +4418,19 @@
         <v>204</v>
       </c>
       <c r="E85" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F85" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H85" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="I85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4475,22 +4441,22 @@
         <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F86" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G86" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H86" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="I86" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4504,13 +4470,13 @@
         <v>298</v>
       </c>
       <c r="F87" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I87" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4524,16 +4490,16 @@
         <v>299</v>
       </c>
       <c r="F88" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H88" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="I88" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4544,22 +4510,22 @@
         <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F89" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G89" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H89" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="I89" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4573,19 +4539,19 @@
         <v>300</v>
       </c>
       <c r="E90" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F90" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G90" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4596,19 +4562,19 @@
         <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F91" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G91" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="I91" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4622,13 +4588,13 @@
         <v>301</v>
       </c>
       <c r="F92" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I92" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4642,16 +4608,16 @@
         <v>302</v>
       </c>
       <c r="F93" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G93" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I93" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4665,22 +4631,22 @@
         <v>303</v>
       </c>
       <c r="E94" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F94" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G94" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H94" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I94" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4691,16 +4657,16 @@
         <v>214</v>
       </c>
       <c r="E95" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F95" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I95" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4711,22 +4677,22 @@
         <v>215</v>
       </c>
       <c r="E96" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F96" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G96" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H96" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="I96" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4740,22 +4706,22 @@
         <v>304</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F97" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G97" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H97" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I97" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4769,19 +4735,19 @@
         <v>305</v>
       </c>
       <c r="E98" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F98" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H98" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="I98" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4789,22 +4755,22 @@
         <v>218</v>
       </c>
       <c r="E99" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F99" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G99" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H99" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I99" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4815,19 +4781,19 @@
         <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F100" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G100" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="I100" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4841,19 +4807,19 @@
         <v>306</v>
       </c>
       <c r="E101" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F101" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H101" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="I101" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4864,16 +4830,16 @@
         <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H102" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I102" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4884,16 +4850,16 @@
         <v>222</v>
       </c>
       <c r="F103" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G103" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I103" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4907,22 +4873,22 @@
         <v>308</v>
       </c>
       <c r="E104" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F104" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G104" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H104" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="I104" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4936,16 +4902,16 @@
         <v>309</v>
       </c>
       <c r="F105" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H105" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I105" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4956,22 +4922,22 @@
         <v>225</v>
       </c>
       <c r="E106" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F106" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G106" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H106" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="I106" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4979,16 +4945,16 @@
         <v>226</v>
       </c>
       <c r="F107" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H107" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I107" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4999,13 +4965,13 @@
         <v>227</v>
       </c>
       <c r="F108" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="I108" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5019,16 +4985,16 @@
         <v>310</v>
       </c>
       <c r="E109" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F109" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I109" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5042,16 +5008,16 @@
         <v>311</v>
       </c>
       <c r="E110" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I110" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5065,16 +5031,16 @@
         <v>312</v>
       </c>
       <c r="F111" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H111" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="I111" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5088,22 +5054,22 @@
         <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F112" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G112" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H112" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="I112" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5114,16 +5080,16 @@
         <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H113" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="I113" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5137,22 +5103,22 @@
         <v>314</v>
       </c>
       <c r="E114" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F114" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G114" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I114" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5160,13 +5126,13 @@
         <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I115" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5177,16 +5143,16 @@
         <v>235</v>
       </c>
       <c r="E116" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F116" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I116" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5197,16 +5163,16 @@
         <v>236</v>
       </c>
       <c r="F117" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H117" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I117" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5220,19 +5186,19 @@
         <v>315</v>
       </c>
       <c r="E118" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F118" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H118" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="I118" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5243,22 +5209,22 @@
         <v>238</v>
       </c>
       <c r="E119" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F119" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G119" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H119" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="I119" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5269,19 +5235,19 @@
         <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F120" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H120" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="I120" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5292,17 +5258,16 @@
         <v>240</v>
       </c>
       <c r="E121" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F121" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I121" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
